--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H2">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I2">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J2">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N2">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q2">
-        <v>10.33914666320334</v>
+        <v>11.70361781766489</v>
       </c>
       <c r="R2">
-        <v>10.33914666320334</v>
+        <v>105.332560358984</v>
       </c>
       <c r="S2">
-        <v>0.001479895976985224</v>
+        <v>0.00157331367460155</v>
       </c>
       <c r="T2">
-        <v>0.001479895976985224</v>
+        <v>0.00157331367460155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H3">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I3">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J3">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N3">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q3">
-        <v>51.23368653318567</v>
+        <v>54.41553914365421</v>
       </c>
       <c r="R3">
-        <v>51.23368653318567</v>
+        <v>489.7398522928879</v>
       </c>
       <c r="S3">
-        <v>0.007333344719485032</v>
+        <v>0.007315063869934928</v>
       </c>
       <c r="T3">
-        <v>0.007333344719485032</v>
+        <v>0.00731506386993493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H4">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I4">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J4">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N4">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O4">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P4">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q4">
-        <v>105.1294115692186</v>
+        <v>116.4998217389458</v>
       </c>
       <c r="R4">
-        <v>105.1294115692186</v>
+        <v>1048.498395650512</v>
       </c>
       <c r="S4">
-        <v>0.0150477208914945</v>
+        <v>0.01566103451822187</v>
       </c>
       <c r="T4">
-        <v>0.0150477208914945</v>
+        <v>0.01566103451822187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H5">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I5">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J5">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N5">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q5">
-        <v>118.89124156578</v>
+        <v>125.9049731245671</v>
       </c>
       <c r="R5">
-        <v>118.89124156578</v>
+        <v>1133.144758121104</v>
       </c>
       <c r="S5">
-        <v>0.01701752338209538</v>
+        <v>0.01692536607084327</v>
       </c>
       <c r="T5">
-        <v>0.01701752338209538</v>
+        <v>0.01692536607084327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H6">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I6">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J6">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N6">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q6">
-        <v>22.33669347521655</v>
+        <v>23.59564377894577</v>
       </c>
       <c r="R6">
-        <v>22.33669347521655</v>
+        <v>212.360794010512</v>
       </c>
       <c r="S6">
-        <v>0.003197167415253924</v>
+        <v>0.003171954996890804</v>
       </c>
       <c r="T6">
-        <v>0.003197167415253924</v>
+        <v>0.003171954996890804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19526953968062</v>
+        <v>2.317101333333333</v>
       </c>
       <c r="H7">
-        <v>2.19526953968062</v>
+        <v>6.951303999999999</v>
       </c>
       <c r="I7">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="J7">
-        <v>0.04637399914974171</v>
+        <v>0.04701330234310855</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N7">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q7">
-        <v>16.05717202416157</v>
+        <v>17.60451335969333</v>
       </c>
       <c r="R7">
-        <v>16.05717202416157</v>
+        <v>158.44062023724</v>
       </c>
       <c r="S7">
-        <v>0.002298346764427656</v>
+        <v>0.002366569212616121</v>
       </c>
       <c r="T7">
-        <v>0.002298346764427656</v>
+        <v>0.002366569212616122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H8">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I8">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J8">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N8">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q8">
-        <v>98.79681460851012</v>
+        <v>108.7944505676964</v>
       </c>
       <c r="R8">
-        <v>98.79681460851012</v>
+        <v>979.1500551092679</v>
       </c>
       <c r="S8">
-        <v>0.01414130326620105</v>
+        <v>0.01462520388700378</v>
       </c>
       <c r="T8">
-        <v>0.01414130326620105</v>
+        <v>0.01462520388700378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H9">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I9">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J9">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N9">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q9">
-        <v>489.5689359107525</v>
+        <v>505.8357830638751</v>
       </c>
       <c r="R9">
-        <v>489.5689359107525</v>
+        <v>4552.522047574876</v>
       </c>
       <c r="S9">
-        <v>0.07007455472991489</v>
+        <v>0.06799934575751244</v>
       </c>
       <c r="T9">
-        <v>0.07007455472991489</v>
+        <v>0.06799934575751244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H10">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I10">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J10">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N10">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O10">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P10">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q10">
-        <v>1004.575263611539</v>
+        <v>1082.958645333825</v>
       </c>
       <c r="R10">
-        <v>1004.575263611539</v>
+        <v>9746.627808004425</v>
       </c>
       <c r="S10">
-        <v>0.1437900959939549</v>
+        <v>0.1455817912269821</v>
       </c>
       <c r="T10">
-        <v>0.1437900959939549</v>
+        <v>0.1455817912269821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H11">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I11">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J11">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N11">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q11">
-        <v>1136.077892516395</v>
+        <v>1170.387019486668</v>
       </c>
       <c r="R11">
-        <v>1136.077892516395</v>
+        <v>10533.48317538001</v>
       </c>
       <c r="S11">
-        <v>0.1626127530099239</v>
+        <v>0.1573347601589676</v>
       </c>
       <c r="T11">
-        <v>0.1626127530099239</v>
+        <v>0.1573347601589676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H12">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I12">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J12">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N12">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q12">
-        <v>213.4406480654723</v>
+        <v>219.3403049138249</v>
       </c>
       <c r="R12">
-        <v>213.4406480654723</v>
+        <v>1974.062744224424</v>
       </c>
       <c r="S12">
-        <v>0.03055087297691419</v>
+        <v>0.02948584843494549</v>
       </c>
       <c r="T12">
-        <v>0.03055087297691419</v>
+        <v>0.02948584843494548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.9771313622452</v>
+        <v>21.53930266666667</v>
       </c>
       <c r="H13">
-        <v>20.9771313622452</v>
+        <v>64.617908</v>
       </c>
       <c r="I13">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="J13">
-        <v>0.4431316767135148</v>
+        <v>0.4370260954754925</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N13">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q13">
-        <v>153.4360135594148</v>
+        <v>163.6479752088867</v>
       </c>
       <c r="R13">
-        <v>153.4360135594148</v>
+        <v>1472.83177687998</v>
       </c>
       <c r="S13">
-        <v>0.02196209673660594</v>
+        <v>0.02199914601008113</v>
       </c>
       <c r="T13">
-        <v>0.02196209673660594</v>
+        <v>0.02199914601008113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>24.1659693040185</v>
+        <v>0.05724100000000001</v>
       </c>
       <c r="H14">
-        <v>24.1659693040185</v>
+        <v>0.171723</v>
       </c>
       <c r="I14">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="J14">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N14">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q14">
-        <v>113.8154091679638</v>
+        <v>0.2891227836536667</v>
       </c>
       <c r="R14">
-        <v>113.8154091679638</v>
+        <v>2.602105052883</v>
       </c>
       <c r="S14">
-        <v>0.01629099302228208</v>
+        <v>3.886668517786046E-05</v>
       </c>
       <c r="T14">
-        <v>0.01629099302228208</v>
+        <v>3.886668517786046E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>24.1659693040185</v>
+        <v>0.05724100000000001</v>
       </c>
       <c r="H15">
-        <v>24.1659693040185</v>
+        <v>0.171723</v>
       </c>
       <c r="I15">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="J15">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N15">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q15">
-        <v>563.9907417805279</v>
+        <v>1.344265713075667</v>
       </c>
       <c r="R15">
-        <v>563.9907417805279</v>
+        <v>12.098391417681</v>
       </c>
       <c r="S15">
-        <v>0.08072693588808416</v>
+        <v>0.0001807092184339566</v>
       </c>
       <c r="T15">
-        <v>0.08072693588808416</v>
+        <v>0.0001807092184339566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>24.1659693040185</v>
+        <v>0.05724100000000001</v>
       </c>
       <c r="H16">
-        <v>24.1659693040185</v>
+        <v>0.171723</v>
       </c>
       <c r="I16">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="J16">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N16">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O16">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P16">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q16">
-        <v>1157.285739636728</v>
+        <v>2.877977842499333</v>
       </c>
       <c r="R16">
-        <v>1157.285739636728</v>
+        <v>25.901800582494</v>
       </c>
       <c r="S16">
-        <v>0.1656483427598593</v>
+        <v>0.0003868856592335215</v>
       </c>
       <c r="T16">
-        <v>0.1656483427598593</v>
+        <v>0.0003868856592335216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>24.1659693040185</v>
+        <v>0.05724100000000001</v>
       </c>
       <c r="H17">
-        <v>24.1659693040185</v>
+        <v>0.171723</v>
       </c>
       <c r="I17">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="J17">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N17">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q17">
-        <v>1308.778736397575</v>
+        <v>3.110319977355334</v>
       </c>
       <c r="R17">
-        <v>1308.778736397575</v>
+        <v>27.992879796198</v>
       </c>
       <c r="S17">
-        <v>0.1873323253699244</v>
+        <v>0.0004181193395920276</v>
       </c>
       <c r="T17">
-        <v>0.1873323253699244</v>
+        <v>0.0004181193395920277</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>24.1659693040185</v>
+        <v>0.05724100000000001</v>
       </c>
       <c r="H18">
-        <v>24.1659693040185</v>
+        <v>0.171723</v>
       </c>
       <c r="I18">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="J18">
-        <v>0.5104943241367436</v>
+        <v>0.0011614029998207</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N18">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q18">
-        <v>245.88682123922</v>
+        <v>0.5828999474993335</v>
       </c>
       <c r="R18">
-        <v>245.88682123922</v>
+        <v>5.246099527494001</v>
       </c>
       <c r="S18">
-        <v>0.03519506293886586</v>
+        <v>7.835905722596503E-05</v>
       </c>
       <c r="T18">
-        <v>0.03519506293886586</v>
+        <v>7.835905722596503E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05724100000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.171723</v>
+      </c>
+      <c r="I19">
+        <v>0.0011614029998207</v>
+      </c>
+      <c r="J19">
+        <v>0.0011614029998207</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.597645</v>
+      </c>
+      <c r="N19">
+        <v>22.792935</v>
+      </c>
+      <c r="O19">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P19">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q19">
+        <v>0.434896797445</v>
+      </c>
+      <c r="R19">
+        <v>3.914071177005</v>
+      </c>
+      <c r="S19">
+        <v>5.846304015736878E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.846304015736879E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.242468</v>
+      </c>
+      <c r="I20">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J20">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N20">
+        <v>15.152921</v>
+      </c>
+      <c r="O20">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P20">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q20">
+        <v>0.4082331610031111</v>
+      </c>
+      <c r="R20">
+        <v>3.674098449028</v>
+      </c>
+      <c r="S20">
+        <v>5.487865586849443E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.487865586849443E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.242468</v>
+      </c>
+      <c r="I21">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J21">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N21">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P21">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q21">
+        <v>1.898065017021778</v>
+      </c>
+      <c r="R21">
+        <v>17.082585153196</v>
+      </c>
+      <c r="S21">
+        <v>0.0002551562852689772</v>
+      </c>
+      <c r="T21">
+        <v>0.0002551562852689773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.242468</v>
+      </c>
+      <c r="I22">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J22">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N22">
+        <v>150.834778</v>
+      </c>
+      <c r="O22">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P22">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q22">
+        <v>4.063622994678222</v>
+      </c>
+      <c r="R22">
+        <v>36.572606952104</v>
+      </c>
+      <c r="S22">
+        <v>0.0005462715653874756</v>
+      </c>
+      <c r="T22">
+        <v>0.0005462715653874757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.242468</v>
+      </c>
+      <c r="I23">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J23">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N23">
+        <v>163.011826</v>
+      </c>
+      <c r="O23">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P23">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q23">
+        <v>4.391683491840888</v>
+      </c>
+      <c r="R23">
+        <v>39.52515142656799</v>
+      </c>
+      <c r="S23">
+        <v>0.0005903726351868983</v>
+      </c>
+      <c r="T23">
+        <v>0.0005903726351868984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.242468</v>
+      </c>
+      <c r="I24">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J24">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N24">
+        <v>30.549778</v>
+      </c>
+      <c r="O24">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P24">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q24">
+        <v>0.8230381746782223</v>
+      </c>
+      <c r="R24">
+        <v>7.407343572104</v>
+      </c>
+      <c r="S24">
+        <v>0.0001106407638316666</v>
+      </c>
+      <c r="T24">
+        <v>0.0001106407638316666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08082266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.242468</v>
+      </c>
+      <c r="I25">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="J25">
+        <v>0.001639868058213084</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.597645</v>
+      </c>
+      <c r="N25">
+        <v>22.792935</v>
+      </c>
+      <c r="O25">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P25">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q25">
+        <v>0.6140619292866667</v>
+      </c>
+      <c r="R25">
+        <v>5.526557363579999</v>
+      </c>
+      <c r="S25">
+        <v>8.254815266957189E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.25481526695719E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.082846</v>
+      </c>
+      <c r="I26">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J26">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N26">
+        <v>15.152921</v>
+      </c>
+      <c r="O26">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P26">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q26">
+        <v>0.1394843214628889</v>
+      </c>
+      <c r="R26">
+        <v>1.255358893166</v>
+      </c>
+      <c r="S26">
+        <v>1.875083361136847E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.875083361136847E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H27">
+        <v>0.082846</v>
+      </c>
+      <c r="I27">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J27">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N27">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O27">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P27">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q27">
+        <v>0.6485272052402222</v>
+      </c>
+      <c r="R27">
+        <v>5.836744847162</v>
+      </c>
+      <c r="S27">
+        <v>8.718130891249025E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.718130891249028E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>24.1659693040185</v>
-      </c>
-      <c r="H19">
-        <v>24.1659693040185</v>
-      </c>
-      <c r="I19">
-        <v>0.5104943241367436</v>
-      </c>
-      <c r="J19">
-        <v>0.5104943241367436</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="N19">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="O19">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="P19">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="Q19">
-        <v>176.7605841703097</v>
-      </c>
-      <c r="R19">
-        <v>176.7605841703097</v>
-      </c>
-      <c r="S19">
-        <v>0.02530066415772776</v>
-      </c>
-      <c r="T19">
-        <v>0.02530066415772776</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H28">
+        <v>0.082846</v>
+      </c>
+      <c r="I28">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J28">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N28">
+        <v>150.834778</v>
+      </c>
+      <c r="O28">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P28">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q28">
+        <v>1.388450890909778</v>
+      </c>
+      <c r="R28">
+        <v>12.496058018188</v>
+      </c>
+      <c r="S28">
+        <v>0.0001866490180398684</v>
+      </c>
+      <c r="T28">
+        <v>0.0001866490180398684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.082846</v>
+      </c>
+      <c r="I29">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J29">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N29">
+        <v>163.011826</v>
+      </c>
+      <c r="O29">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P29">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q29">
+        <v>1.500541970755111</v>
+      </c>
+      <c r="R29">
+        <v>13.504877736796</v>
+      </c>
+      <c r="S29">
+        <v>0.0002017173867673003</v>
+      </c>
+      <c r="T29">
+        <v>0.0002017173867673004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H30">
+        <v>0.082846</v>
+      </c>
+      <c r="I30">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J30">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N30">
+        <v>30.549778</v>
+      </c>
+      <c r="O30">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P30">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q30">
+        <v>0.2812141009097778</v>
+      </c>
+      <c r="R30">
+        <v>2.530926908188</v>
+      </c>
+      <c r="S30">
+        <v>3.780352343566266E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.780352343566266E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.02761533333333334</v>
+      </c>
+      <c r="H31">
+        <v>0.082846</v>
+      </c>
+      <c r="I31">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="J31">
+        <v>0.0005603069648395713</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.597645</v>
+      </c>
+      <c r="N31">
+        <v>22.792935</v>
+      </c>
+      <c r="O31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q31">
+        <v>0.2098114992233333</v>
+      </c>
+      <c r="R31">
+        <v>1.88830349301</v>
+      </c>
+      <c r="S31">
+        <v>2.820489407288117E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.820489407288118E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.263996</v>
+      </c>
+      <c r="H32">
+        <v>75.791988</v>
+      </c>
+      <c r="I32">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J32">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N32">
+        <v>15.152921</v>
+      </c>
+      <c r="O32">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P32">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q32">
+        <v>127.607778510772</v>
+      </c>
+      <c r="R32">
+        <v>1148.470006596948</v>
+      </c>
+      <c r="S32">
+        <v>0.01715427366514781</v>
+      </c>
+      <c r="T32">
+        <v>0.01715427366514781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.263996</v>
+      </c>
+      <c r="H33">
+        <v>75.791988</v>
+      </c>
+      <c r="I33">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J33">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N33">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O33">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P33">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q33">
+        <v>593.307657065404</v>
+      </c>
+      <c r="R33">
+        <v>5339.768913588636</v>
+      </c>
+      <c r="S33">
+        <v>0.0797581623605214</v>
+      </c>
+      <c r="T33">
+        <v>0.0797581623605214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.263996</v>
+      </c>
+      <c r="H34">
+        <v>75.791988</v>
+      </c>
+      <c r="I34">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J34">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N34">
+        <v>150.834778</v>
+      </c>
+      <c r="O34">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P34">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q34">
+        <v>1270.229742684296</v>
+      </c>
+      <c r="R34">
+        <v>11432.06768415866</v>
+      </c>
+      <c r="S34">
+        <v>0.1707565861416301</v>
+      </c>
+      <c r="T34">
+        <v>0.1707565861416301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.263996</v>
+      </c>
+      <c r="H35">
+        <v>75.791988</v>
+      </c>
+      <c r="I35">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J35">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N35">
+        <v>163.011826</v>
+      </c>
+      <c r="O35">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P35">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q35">
+        <v>1372.776706672232</v>
+      </c>
+      <c r="R35">
+        <v>12354.99036005009</v>
+      </c>
+      <c r="S35">
+        <v>0.1845419423660598</v>
+      </c>
+      <c r="T35">
+        <v>0.1845419423660598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.263996</v>
+      </c>
+      <c r="H36">
+        <v>75.791988</v>
+      </c>
+      <c r="I36">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J36">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N36">
+        <v>30.549778</v>
+      </c>
+      <c r="O36">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P36">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q36">
+        <v>257.269823064296</v>
+      </c>
+      <c r="R36">
+        <v>2315.428407578664</v>
+      </c>
+      <c r="S36">
+        <v>0.03458470167049059</v>
+      </c>
+      <c r="T36">
+        <v>0.03458470167049058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.263996</v>
+      </c>
+      <c r="H37">
+        <v>75.791988</v>
+      </c>
+      <c r="I37">
+        <v>0.5125990241585257</v>
+      </c>
+      <c r="J37">
+        <v>0.5125990241585255</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.597645</v>
+      </c>
+      <c r="N37">
+        <v>22.792935</v>
+      </c>
+      <c r="O37">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P37">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q37">
+        <v>191.94687288942</v>
+      </c>
+      <c r="R37">
+        <v>1727.52185600478</v>
+      </c>
+      <c r="S37">
+        <v>0.02580335795467592</v>
+      </c>
+      <c r="T37">
+        <v>0.02580335795467592</v>
       </c>
     </row>
   </sheetData>
